--- a/HP/zj/2021.11.xlsx
+++ b/HP/zj/2021.11.xlsx
@@ -8,11 +8,12 @@
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -97,8 +98,7 @@
         <rFont val="永中宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">-</t>
+      <t/>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -156,19 +156,118 @@
         <rFont val="永中宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+      <t/>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>39*2</t>
+  </si>
+  <si>
+    <t>自驾小汽车</t>
+  </si>
+  <si>
+    <t>1、HP台式机换主板;2、第三次上门：更换高清摄像头;数据线;电源适配器故障解决。</t>
+  </si>
+  <si>
+    <t>无单</t>
+  </si>
+  <si>
+    <t>2021.11.18</t>
+  </si>
+  <si>
+    <t>公司- 1、农林学校- 2、石油化工学校西城区-公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、叶老师
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、黄老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>39*2</t>
-  </si>
-  <si>
-    <t>自驾小汽车</t>
-  </si>
-  <si>
-    <t>1、HP台式机换主板;2、第三次上门：更换高清摄像头;数据线;电源适配器故障解决。</t>
+    <t>18*2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、送一台海尔显示器给叶老师;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送两台清华同方主机；一台显示器给黄老师。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>、</t>
@@ -181,20 +280,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="11">
+  <numFmts count="13">
     <numFmt numFmtId="176" formatCode="0%"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ ￥* #,##0_ ;_ ￥* -#,##0_ ;_ ￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="181" formatCode="yyyy-m-d;@"/>
     <numFmt numFmtId="182" formatCode="yyyy-m-d"/>
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="39">
+  <fonts count="40" x14ac:knownFonts="40">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -441,6 +542,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -822,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1398,43 +1504,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1780,44 +1856,35 @@
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="188" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="183" applyNumberFormat="1" fontId="0" fillId="0" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1838,11 +1905,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.0" style="1"/>
     <col min="2" max="2" width="29.0" customWidth="1" style="1"/>
@@ -1887,19 +1954,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -1908,19 +1975,36 @@
       <c r="H6" s="11">
         <v>78</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="128"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+    <row r="7" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="76"/>
+      <c r="B7" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="124">
+        <v>36</v>
+      </c>
+      <c r="I7" s="128" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="48.749256" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="69"/>
@@ -2104,7 +2188,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2116,11 +2200,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:I26)</f>
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.11.xlsx
+++ b/HP/zj/2021.11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -268,6 +268,24 @@
       <t/>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>9312219</t>
+  </si>
+  <si>
+    <t>2021.11.22</t>
+  </si>
+  <si>
+    <t>公司-世茂云悦新城销售部-公司</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>10*2</t>
+  </si>
+  <si>
+    <t>acer 台式机更换主板</t>
   </si>
   <si>
     <t>、</t>
@@ -280,10 +298,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="176" formatCode="0%"/>
     <numFmt numFmtId="177" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ ￥* #,##0_ ;_ ￥* -#,##0_ ;_ ￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ ¥* #,##0_ ;_ ¥* -#,##0_ ;_ ¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="yyyy-m-d;@"/>
@@ -291,11 +309,10 @@
     <numFmt numFmtId="183" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="40">
+  <fonts count="39" x14ac:knownFonts="39">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -542,11 +559,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -928,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1429,88 +1441,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,34 +1793,19 @@
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="186" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="0" fillId="0" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1905,8 +1827,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1980,41 +1902,57 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="124" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="11">
         <v>36</v>
       </c>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="48.749256" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11">
+        <v>20</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -2188,7 +2126,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2200,11 +2138,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:I26)</f>
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.11.xlsx
+++ b/HP/zj/2021.11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -286,6 +286,39 @@
   </si>
   <si>
     <t>acer 台式机更换主板</t>
+  </si>
+  <si>
+    <t>2021.11.30</t>
+  </si>
+  <si>
+    <t>公司- 石油化工学校西城区-公司</t>
+  </si>
+  <si>
+    <t>黄老师</t>
+  </si>
+  <si>
+    <t>16*2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+送一台清华同方显示器给黄老师。上门维修一台
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清华同方显示器。</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>、</t>
@@ -312,7 +345,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="39">
+  <fonts count="40" x14ac:knownFonts="40">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -559,6 +592,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -940,7 +978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1441,13 +1479,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,6 +1950,36 @@
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1827,8 +2000,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1912,7 +2085,7 @@
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="124" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1929,7 +2102,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="48.749256" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="133" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -1938,7 +2111,7 @@
       <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -1955,14 +2128,30 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="132">
+        <v>3002337</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="11">
+        <v>32</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
@@ -2126,7 +2315,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2138,11 +2327,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:I26)</f>
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.11.xlsx
+++ b/HP/zj/2021.11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -319,6 +319,24 @@
       <t>清华同方显示器。</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>WO-016137998</t>
+  </si>
+  <si>
+    <t>2021.12.03</t>
+  </si>
+  <si>
+    <t>公司-电白区旦场镇金村卖部-公司</t>
+  </si>
+  <si>
+    <t>李成银</t>
+  </si>
+  <si>
+    <t>34*2</t>
+  </si>
+  <si>
+    <t>HP台式机换主板</t>
   </si>
   <si>
     <t>、</t>
@@ -345,7 +363,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="40">
+  <fonts count="39" x14ac:knownFonts="39">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -592,11 +610,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -978,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1344,6 +1357,66 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1509,88 +1582,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1808,6 +1806,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1819,10 +1832,10 @@
     <xf numFmtId="0" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1831,34 +1844,34 @@
     <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1948,38 +1961,17 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -2000,8 +1992,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -2085,7 +2077,7 @@
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -2102,7 +2094,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="48.749256" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="80" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -2128,19 +2120,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="132">
+      <c r="B9" s="75">
         <v>3002337</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2149,19 +2141,35 @@
       <c r="H9" s="11">
         <v>32</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11">
+        <v>68</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="69"/>
@@ -2315,7 +2323,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2327,11 +2335,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:I26)</f>
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.11.xlsx
+++ b/HP/zj/2021.11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -337,6 +337,24 @@
   </si>
   <si>
     <t>HP台式机换主板</t>
+  </si>
+  <si>
+    <t>9318174</t>
+  </si>
+  <si>
+    <t>2021.12.08</t>
+  </si>
+  <si>
+    <t>公司-七径镇茂名大道交投物流业园-公司</t>
+  </si>
+  <si>
+    <t>唐女士</t>
+  </si>
+  <si>
+    <t>22*2</t>
+  </si>
+  <si>
+    <t>取一台ACER显示器回公司</t>
   </si>
   <si>
     <t>、</t>
@@ -991,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1567,28 +1585,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1962,16 +1965,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1992,8 +1989,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -2146,13 +2143,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -2172,14 +2169,30 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="69"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>44</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="69"/>
@@ -2323,7 +2336,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -2335,11 +2348,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:I26)</f>
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
